--- a/data/pca/factorExposure/factorExposure_2016-08-11.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-08-11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01278895187716781</v>
+        <v>0.0136378529826573</v>
       </c>
       <c r="C2">
-        <v>0.05457384953347127</v>
+        <v>0.04357176736345343</v>
       </c>
       <c r="D2">
-        <v>0.03680839136902712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.06416121718792886</v>
+      </c>
+      <c r="E2">
+        <v>0.056905756932535</v>
+      </c>
+      <c r="F2">
+        <v>0.0787409608037852</v>
+      </c>
+      <c r="G2">
+        <v>-0.03396899240885835</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.06471889257160261</v>
+        <v>0.03108580166096989</v>
       </c>
       <c r="C3">
-        <v>0.09637089699103173</v>
+        <v>0.08194300041684506</v>
       </c>
       <c r="D3">
-        <v>0.09040569989665599</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08964715811059434</v>
+      </c>
+      <c r="E3">
+        <v>0.06559312111657223</v>
+      </c>
+      <c r="F3">
+        <v>0.002134912208816531</v>
+      </c>
+      <c r="G3">
+        <v>0.03819930683218395</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.0679846231993623</v>
+        <v>0.05764090505499212</v>
       </c>
       <c r="C4">
-        <v>0.05884578552470687</v>
+        <v>0.06641721775657607</v>
       </c>
       <c r="D4">
-        <v>0.02650209924419319</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.05885596771620268</v>
+      </c>
+      <c r="E4">
+        <v>0.05471469173904061</v>
+      </c>
+      <c r="F4">
+        <v>0.08662589605811494</v>
+      </c>
+      <c r="G4">
+        <v>0.0387271665647201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.04339217626516053</v>
+        <v>0.03534493446372767</v>
       </c>
       <c r="C6">
-        <v>0.03661317740687661</v>
+        <v>0.03155008775554922</v>
       </c>
       <c r="D6">
-        <v>0.03041606359038525</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.06527362416316637</v>
+      </c>
+      <c r="E6">
+        <v>0.06205984050291148</v>
+      </c>
+      <c r="F6">
+        <v>0.06854306523201577</v>
+      </c>
+      <c r="G6">
+        <v>0.02299902387542766</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02279876662793955</v>
+        <v>0.01908047562146012</v>
       </c>
       <c r="C7">
-        <v>0.04393028766203985</v>
+        <v>0.03875769144077933</v>
       </c>
       <c r="D7">
-        <v>-0.001890791299581065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.03654488286080972</v>
+      </c>
+      <c r="E7">
+        <v>0.03693643222080065</v>
+      </c>
+      <c r="F7">
+        <v>0.1054034488814263</v>
+      </c>
+      <c r="G7">
+        <v>0.007546696548213177</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.002862151437777116</v>
+        <v>0.003232184493498253</v>
       </c>
       <c r="C8">
-        <v>0.02794252688028795</v>
+        <v>0.02924611618277411</v>
       </c>
       <c r="D8">
-        <v>0.03183384683755959</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03349267716695672</v>
+      </c>
+      <c r="E8">
+        <v>0.04421682147511105</v>
+      </c>
+      <c r="F8">
+        <v>0.04683360422710885</v>
+      </c>
+      <c r="G8">
+        <v>0.01008267593724128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.03770092667003207</v>
+        <v>0.03648541384072029</v>
       </c>
       <c r="C9">
-        <v>0.04329590395020829</v>
+        <v>0.05303067252233605</v>
       </c>
       <c r="D9">
-        <v>0.0135108484031615</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.04289962125885153</v>
+      </c>
+      <c r="E9">
+        <v>0.04581615326624359</v>
+      </c>
+      <c r="F9">
+        <v>0.0906640817407615</v>
+      </c>
+      <c r="G9">
+        <v>0.02322698429069953</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.06666195786825664</v>
+        <v>0.0987019626476759</v>
       </c>
       <c r="C10">
-        <v>-0.1970781170190514</v>
+        <v>-0.1948867430776629</v>
       </c>
       <c r="D10">
-        <v>-0.0009301521741534702</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.002080846475782255</v>
+      </c>
+      <c r="E10">
+        <v>0.04564007462479273</v>
+      </c>
+      <c r="F10">
+        <v>0.04106587625627754</v>
+      </c>
+      <c r="G10">
+        <v>0.009455888466106109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04322719393528121</v>
+        <v>0.03646687013968886</v>
       </c>
       <c r="C11">
-        <v>0.05344737914024614</v>
+        <v>0.05140810585638984</v>
       </c>
       <c r="D11">
-        <v>0.009336394821152696</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.03327564807873971</v>
+      </c>
+      <c r="E11">
+        <v>0.008015216298905307</v>
+      </c>
+      <c r="F11">
+        <v>0.06568257400016093</v>
+      </c>
+      <c r="G11">
+        <v>0.01522069239323934</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04278046961380617</v>
+        <v>0.03733990208283038</v>
       </c>
       <c r="C12">
-        <v>0.04866041347067876</v>
+        <v>0.04752743565601902</v>
       </c>
       <c r="D12">
-        <v>0.001833417753334837</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.02522421723427632</v>
+      </c>
+      <c r="E12">
+        <v>0.01653183947099135</v>
+      </c>
+      <c r="F12">
+        <v>0.06823924383812412</v>
+      </c>
+      <c r="G12">
+        <v>0.01210942119442904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01846131178599369</v>
+        <v>0.01222029898467061</v>
       </c>
       <c r="C13">
-        <v>0.04895505964100044</v>
+        <v>0.04318137910685504</v>
       </c>
       <c r="D13">
-        <v>0.02093316508382727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.06099953975104611</v>
+      </c>
+      <c r="E13">
+        <v>0.06739143538636203</v>
+      </c>
+      <c r="F13">
+        <v>0.1104250715866045</v>
+      </c>
+      <c r="G13">
+        <v>0.01967167966534956</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.009311143287982809</v>
+        <v>0.004971527904581207</v>
       </c>
       <c r="C14">
-        <v>0.03518765980569403</v>
+        <v>0.03254162871711169</v>
       </c>
       <c r="D14">
-        <v>-0.01518943414786913</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.02509590514193869</v>
+      </c>
+      <c r="E14">
+        <v>0.02952061915692893</v>
+      </c>
+      <c r="F14">
+        <v>0.09678722672881077</v>
+      </c>
+      <c r="G14">
+        <v>-0.007253252488009386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0005925034688787102</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.00565851110065436</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.006210502277971051</v>
+      </c>
+      <c r="E15">
+        <v>-0.0001212258984597902</v>
+      </c>
+      <c r="F15">
+        <v>0.005202974125009851</v>
+      </c>
+      <c r="G15">
+        <v>0.0004159516629471713</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.03918321855975158</v>
+        <v>0.03394150695432776</v>
       </c>
       <c r="C16">
-        <v>0.04606393754078793</v>
+        <v>0.04533902126716655</v>
       </c>
       <c r="D16">
-        <v>0.00754183293994433</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.02712920867526614</v>
+      </c>
+      <c r="E16">
+        <v>0.02209506717874602</v>
+      </c>
+      <c r="F16">
+        <v>0.07009004145709832</v>
+      </c>
+      <c r="G16">
+        <v>0.001660274964660835</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.0282406058462241</v>
+        <v>0.01664185778802937</v>
       </c>
       <c r="C19">
-        <v>0.06310061904715955</v>
+        <v>0.05106226652023556</v>
       </c>
       <c r="D19">
-        <v>0.07540009448372997</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.092932673565851</v>
+      </c>
+      <c r="E19">
+        <v>0.08539466808404111</v>
+      </c>
+      <c r="F19">
+        <v>0.08896614664328663</v>
+      </c>
+      <c r="G19">
+        <v>-0.02171336571875519</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.01938769475132365</v>
+        <v>0.01348041766332266</v>
       </c>
       <c r="C20">
-        <v>0.04591968688012921</v>
+        <v>0.04150085611999744</v>
       </c>
       <c r="D20">
-        <v>0.01865642785716111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03823366628787282</v>
+      </c>
+      <c r="E20">
+        <v>0.059292592508196</v>
+      </c>
+      <c r="F20">
+        <v>0.08606675037670412</v>
+      </c>
+      <c r="G20">
+        <v>0.005386439249079375</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.0145889965780901</v>
+        <v>0.00904746794035946</v>
       </c>
       <c r="C21">
-        <v>0.04830021000274065</v>
+        <v>0.0453610825263601</v>
       </c>
       <c r="D21">
-        <v>0.03477324460515021</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.06648766231291732</v>
+      </c>
+      <c r="E21">
+        <v>0.07526884269484399</v>
+      </c>
+      <c r="F21">
+        <v>0.1355399858095752</v>
+      </c>
+      <c r="G21">
+        <v>0.008365043934696861</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>0.001884453580563381</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>0.02319372659423664</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.03617945588736952</v>
+      </c>
+      <c r="E22">
+        <v>0.02168453599774184</v>
+      </c>
+      <c r="F22">
+        <v>0.01969185605923509</v>
+      </c>
+      <c r="G22">
+        <v>0.03906657506781119</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>0.001952559585489975</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>0.02331675805441828</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.03585963680524435</v>
+      </c>
+      <c r="E23">
+        <v>0.02195991115474245</v>
+      </c>
+      <c r="F23">
+        <v>0.0195485876845612</v>
+      </c>
+      <c r="G23">
+        <v>0.0392662523401151</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03483987342664799</v>
+        <v>0.03366937321371893</v>
       </c>
       <c r="C24">
-        <v>0.05059363762702749</v>
+        <v>0.05344964975608901</v>
       </c>
       <c r="D24">
-        <v>0.006015129345687148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.0262076238153153</v>
+      </c>
+      <c r="E24">
+        <v>0.01960320999536222</v>
+      </c>
+      <c r="F24">
+        <v>0.07789637340396878</v>
+      </c>
+      <c r="G24">
+        <v>0.009163693385515256</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04928447923589056</v>
+        <v>0.04398415158469177</v>
       </c>
       <c r="C25">
-        <v>0.05962825939228546</v>
+        <v>0.05670210556307742</v>
       </c>
       <c r="D25">
-        <v>-0.005085318607459786</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.02430344262124493</v>
+      </c>
+      <c r="E25">
+        <v>0.01369213533363438</v>
+      </c>
+      <c r="F25">
+        <v>0.07984613809630278</v>
+      </c>
+      <c r="G25">
+        <v>0.02619426391522915</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.01723379327579885</v>
+        <v>0.01382425801751751</v>
       </c>
       <c r="C26">
-        <v>0.01544569462585206</v>
+        <v>0.01733614944195538</v>
       </c>
       <c r="D26">
-        <v>-7.014547972556336e-05</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02460724282243732</v>
+      </c>
+      <c r="E26">
+        <v>0.03125989999980557</v>
+      </c>
+      <c r="F26">
+        <v>0.07233860340198982</v>
+      </c>
+      <c r="G26">
+        <v>-0.01391139049329898</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.07646045684224424</v>
+        <v>0.1331566534986334</v>
       </c>
       <c r="C28">
-        <v>-0.232882651801199</v>
+        <v>-0.2456027489094797</v>
       </c>
       <c r="D28">
-        <v>0.0001689405989189842</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01750137239844934</v>
+      </c>
+      <c r="E28">
+        <v>0.04853338927837443</v>
+      </c>
+      <c r="F28">
+        <v>0.05571619965135807</v>
+      </c>
+      <c r="G28">
+        <v>0.02204809727411764</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.0110854456639301</v>
+        <v>0.005937057069837216</v>
       </c>
       <c r="C29">
-        <v>0.02813071806925129</v>
+        <v>0.02795583709703214</v>
       </c>
       <c r="D29">
-        <v>-0.01750113690886471</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.01965113636235829</v>
+      </c>
+      <c r="E29">
+        <v>0.03119594288560884</v>
+      </c>
+      <c r="F29">
+        <v>0.08943232781167203</v>
+      </c>
+      <c r="G29">
+        <v>0.005162272558239185</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.05630571102085659</v>
+        <v>0.04222955532818455</v>
       </c>
       <c r="C30">
-        <v>0.05830029364183716</v>
+        <v>0.06519707534585445</v>
       </c>
       <c r="D30">
-        <v>0.06006210770391784</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1064643992964074</v>
+      </c>
+      <c r="E30">
+        <v>0.04679495712083943</v>
+      </c>
+      <c r="F30">
+        <v>0.1026548212293234</v>
+      </c>
+      <c r="G30">
+        <v>-0.01288979210076506</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.05571602923117409</v>
+        <v>0.05478517968338433</v>
       </c>
       <c r="C31">
-        <v>0.03399929735824449</v>
+        <v>0.05515866258409547</v>
       </c>
       <c r="D31">
-        <v>-0.02082988180911169</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.0114352341412556</v>
+      </c>
+      <c r="E31">
+        <v>0.05024892983082682</v>
+      </c>
+      <c r="F31">
+        <v>0.07890080778620695</v>
+      </c>
+      <c r="G31">
+        <v>0.04828838463622685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.002527668408167521</v>
+        <v>0.00497802718269913</v>
       </c>
       <c r="C32">
-        <v>0.04492997958408258</v>
+        <v>0.03379728434252412</v>
       </c>
       <c r="D32">
-        <v>0.0312227174945007</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.05029433559821828</v>
+      </c>
+      <c r="E32">
+        <v>0.02766335694859748</v>
+      </c>
+      <c r="F32">
+        <v>0.07316384453357541</v>
+      </c>
+      <c r="G32">
+        <v>-0.01037358858466132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03144899028210852</v>
+        <v>0.0247166356378737</v>
       </c>
       <c r="C33">
-        <v>0.06169396739404163</v>
+        <v>0.05564514494638278</v>
       </c>
       <c r="D33">
-        <v>0.03920873868998615</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.0780611553798576</v>
+      </c>
+      <c r="E33">
+        <v>0.05672869788500439</v>
+      </c>
+      <c r="F33">
+        <v>0.1257027907104331</v>
+      </c>
+      <c r="G33">
+        <v>0.02097901348539172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04757523365856382</v>
+        <v>0.04126829620673517</v>
       </c>
       <c r="C34">
-        <v>0.06426021219488273</v>
+        <v>0.06384445363339163</v>
       </c>
       <c r="D34">
-        <v>0.003248834413816899</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.03305691141263963</v>
+      </c>
+      <c r="E34">
+        <v>-0.004253478373572431</v>
+      </c>
+      <c r="F34">
+        <v>0.07632510359329009</v>
+      </c>
+      <c r="G34">
+        <v>0.01116409643455279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.01425283644778947</v>
+        <v>0.01300786119313143</v>
       </c>
       <c r="C36">
-        <v>0.01636504579342526</v>
+        <v>0.01291637735944368</v>
       </c>
       <c r="D36">
-        <v>-0.001005310221967719</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.02635103836719111</v>
+      </c>
+      <c r="E36">
+        <v>0.03714019932151218</v>
+      </c>
+      <c r="F36">
+        <v>0.07992473670292161</v>
+      </c>
+      <c r="G36">
+        <v>0.009591537805764128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03167158610748479</v>
+        <v>0.02451362916870496</v>
       </c>
       <c r="C38">
-        <v>0.02739004285705527</v>
+        <v>0.02487931702761246</v>
       </c>
       <c r="D38">
-        <v>-0.00289078394954981</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02538540328316041</v>
+      </c>
+      <c r="E38">
+        <v>0.03617152854731161</v>
+      </c>
+      <c r="F38">
+        <v>0.06826169267802369</v>
+      </c>
+      <c r="G38">
+        <v>0.004951035515087862</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04734639834858622</v>
+        <v>0.03959558541144655</v>
       </c>
       <c r="C39">
-        <v>0.07208590040888042</v>
+        <v>0.06833980190236211</v>
       </c>
       <c r="D39">
-        <v>0.02282124512274366</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.05245757277502767</v>
+      </c>
+      <c r="E39">
+        <v>0.0222890393120207</v>
+      </c>
+      <c r="F39">
+        <v>0.09007488675409082</v>
+      </c>
+      <c r="G39">
+        <v>-0.01435711662598715</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01778546983882601</v>
+        <v>0.01564572866801829</v>
       </c>
       <c r="C40">
-        <v>0.03999092289008082</v>
+        <v>0.04087668268744724</v>
       </c>
       <c r="D40">
-        <v>0.03450378667328502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03727961878881667</v>
+      </c>
+      <c r="E40">
+        <v>0.07457242621083829</v>
+      </c>
+      <c r="F40">
+        <v>0.0816004639165983</v>
+      </c>
+      <c r="G40">
+        <v>0.04385583670751628</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01605554786350417</v>
+        <v>0.01742242102228805</v>
       </c>
       <c r="C41">
-        <v>0.0124295955489065</v>
+        <v>0.00674493839586996</v>
       </c>
       <c r="D41">
-        <v>-0.002834698771392622</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01421194434432462</v>
+      </c>
+      <c r="E41">
+        <v>0.04069085696333841</v>
+      </c>
+      <c r="F41">
+        <v>0.06972501739653475</v>
+      </c>
+      <c r="G41">
+        <v>0.002951492534950169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.0009123818299690133</v>
+        <v>0.0007137687429261928</v>
       </c>
       <c r="C42">
-        <v>0.00692713754732539</v>
+        <v>0.003832530060419202</v>
       </c>
       <c r="D42">
-        <v>0.007734035512275964</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.0004787755868417292</v>
+      </c>
+      <c r="E42">
+        <v>0.007649244410089883</v>
+      </c>
+      <c r="F42">
+        <v>-0.007623934264765884</v>
+      </c>
+      <c r="G42">
+        <v>-0.001471126715407489</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.03704014915168634</v>
+        <v>0.0287112091260124</v>
       </c>
       <c r="C43">
-        <v>0.02588262855991188</v>
+        <v>0.02197887613990067</v>
       </c>
       <c r="D43">
-        <v>0.01479027994736766</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.03821954858544277</v>
+      </c>
+      <c r="E43">
+        <v>0.04768744757314589</v>
+      </c>
+      <c r="F43">
+        <v>0.08258717955968266</v>
+      </c>
+      <c r="G43">
+        <v>0.02251588938207306</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.02227624096158739</v>
+        <v>0.01418780494215085</v>
       </c>
       <c r="C44">
-        <v>0.05705463277056857</v>
+        <v>0.05289556644657502</v>
       </c>
       <c r="D44">
-        <v>0.01481107134159192</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.0381695329290986</v>
+      </c>
+      <c r="E44">
+        <v>0.0607053332034005</v>
+      </c>
+      <c r="F44">
+        <v>0.08597831365348134</v>
+      </c>
+      <c r="G44">
+        <v>-0.002616287243353158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.006459887972833043</v>
+        <v>0.007585503019008377</v>
       </c>
       <c r="C46">
-        <v>0.0231638114729401</v>
+        <v>0.02608139234016169</v>
       </c>
       <c r="D46">
-        <v>-0.02293530166010312</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01003639022085273</v>
+      </c>
+      <c r="E46">
+        <v>0.03709174296769522</v>
+      </c>
+      <c r="F46">
+        <v>0.1015006771905358</v>
+      </c>
+      <c r="G46">
+        <v>0.0004167837835865395</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.08564921527329689</v>
+        <v>0.08717950725562242</v>
       </c>
       <c r="C47">
-        <v>0.06683266566901916</v>
+        <v>0.07989638020117686</v>
       </c>
       <c r="D47">
-        <v>-0.01709795022304509</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.01806796356268557</v>
+      </c>
+      <c r="E47">
+        <v>0.0565984476499384</v>
+      </c>
+      <c r="F47">
+        <v>0.07759874348623717</v>
+      </c>
+      <c r="G47">
+        <v>0.05077575589160403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.0208735706011586</v>
+        <v>0.01574878718854964</v>
       </c>
       <c r="C48">
-        <v>0.01400401510757011</v>
+        <v>0.01800089324427317</v>
       </c>
       <c r="D48">
-        <v>-0.01032598050619351</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.01606547580792682</v>
+      </c>
+      <c r="E48">
+        <v>0.04887452924220261</v>
+      </c>
+      <c r="F48">
+        <v>0.09435812359981584</v>
+      </c>
+      <c r="G48">
+        <v>0.008937965476199608</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08618888545144644</v>
+        <v>0.07103090880661721</v>
       </c>
       <c r="C50">
-        <v>0.06784470101783802</v>
+        <v>0.07171983810106436</v>
       </c>
       <c r="D50">
-        <v>-0.02649260406271516</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.006462458468923447</v>
+      </c>
+      <c r="E50">
+        <v>0.05528603193220511</v>
+      </c>
+      <c r="F50">
+        <v>0.06880168778731859</v>
+      </c>
+      <c r="G50">
+        <v>0.07273854507700232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01862515029971044</v>
+        <v>0.01081889820104271</v>
       </c>
       <c r="C51">
-        <v>0.04719744593357243</v>
+        <v>0.03416580592283509</v>
       </c>
       <c r="D51">
-        <v>0.01513888825176948</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.0476996206761291</v>
+      </c>
+      <c r="E51">
+        <v>0.02577687931861138</v>
+      </c>
+      <c r="F51">
+        <v>0.08119137012113031</v>
+      </c>
+      <c r="G51">
+        <v>-0.01934964866598716</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08726159836104665</v>
+        <v>0.09412671994444095</v>
       </c>
       <c r="C53">
-        <v>0.07065362432592649</v>
+        <v>0.08601609166319253</v>
       </c>
       <c r="D53">
-        <v>-0.0338076813096456</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.04098911395569757</v>
+      </c>
+      <c r="E53">
+        <v>0.05316228202861609</v>
+      </c>
+      <c r="F53">
+        <v>0.087622114875999</v>
+      </c>
+      <c r="G53">
+        <v>0.06292005744775367</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.03440301944335526</v>
+        <v>0.02819449030931976</v>
       </c>
       <c r="C54">
-        <v>0.02346801892113944</v>
+        <v>0.02700097273816958</v>
       </c>
       <c r="D54">
-        <v>0.0008754432353114629</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03004192052682438</v>
+      </c>
+      <c r="E54">
+        <v>0.04373811467729977</v>
+      </c>
+      <c r="F54">
+        <v>0.09552053507140683</v>
+      </c>
+      <c r="G54">
+        <v>0.006021514367886211</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.07896472727606953</v>
+        <v>0.08550485638180672</v>
       </c>
       <c r="C55">
-        <v>0.05562282578183338</v>
+        <v>0.06981603377221811</v>
       </c>
       <c r="D55">
-        <v>-0.03856379482630971</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.04806620179574655</v>
+      </c>
+      <c r="E55">
+        <v>0.04404185443628189</v>
+      </c>
+      <c r="F55">
+        <v>0.06156140268971452</v>
+      </c>
+      <c r="G55">
+        <v>0.05158418804755766</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1526046112576974</v>
+        <v>0.1470744535900458</v>
       </c>
       <c r="C56">
-        <v>0.08518142160591997</v>
+        <v>0.1035257725603481</v>
       </c>
       <c r="D56">
-        <v>-0.04263504747235741</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.05155732475351197</v>
+      </c>
+      <c r="E56">
+        <v>0.04658477666614942</v>
+      </c>
+      <c r="F56">
+        <v>0.04813362848072771</v>
+      </c>
+      <c r="G56">
+        <v>0.05933261286602325</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.00190519879366174</v>
+        <v>0.0008410377283019523</v>
       </c>
       <c r="C57">
-        <v>0.002011444602406133</v>
+        <v>0.001381991681543663</v>
       </c>
       <c r="D57">
-        <v>0.02165573962216916</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.01602576036460595</v>
+      </c>
+      <c r="E57">
+        <v>0.01067468691120432</v>
+      </c>
+      <c r="F57">
+        <v>0.006569824744695453</v>
+      </c>
+      <c r="G57">
+        <v>0.004534512274433383</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.07124595668398968</v>
+        <v>0.02831091748653391</v>
       </c>
       <c r="C58">
-        <v>0.0233642700693846</v>
+        <v>0.03902436075087461</v>
       </c>
       <c r="D58">
-        <v>0.8731495679410753</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.4641323320696243</v>
+      </c>
+      <c r="E58">
+        <v>0.6929943730706781</v>
+      </c>
+      <c r="F58">
+        <v>-0.4683029373867481</v>
+      </c>
+      <c r="G58">
+        <v>-0.05267444196682834</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1248434667125316</v>
+        <v>0.1438924692578526</v>
       </c>
       <c r="C59">
-        <v>-0.2060544851219882</v>
+        <v>-0.1868223633749173</v>
       </c>
       <c r="D59">
-        <v>0.01979373368689863</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.0322867495836889</v>
+      </c>
+      <c r="E59">
+        <v>0.02766244086361304</v>
+      </c>
+      <c r="F59">
+        <v>0.02401660282963766</v>
+      </c>
+      <c r="G59">
+        <v>-0.02800758863473486</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.3131775591129538</v>
+        <v>0.2837165929142914</v>
       </c>
       <c r="C60">
-        <v>0.07087913714745828</v>
+        <v>0.09643777942510015</v>
       </c>
       <c r="D60">
-        <v>0.04793331919991574</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.2102756921897045</v>
+      </c>
+      <c r="E60">
+        <v>-0.2686034435531584</v>
+      </c>
+      <c r="F60">
+        <v>-0.1105077328071179</v>
+      </c>
+      <c r="G60">
+        <v>0.04432848564583999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04413128230112164</v>
+        <v>0.04098796212413328</v>
       </c>
       <c r="C61">
-        <v>0.06315948493318574</v>
+        <v>0.06197500920627675</v>
       </c>
       <c r="D61">
-        <v>0.01183400233303705</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04470196249621911</v>
+      </c>
+      <c r="E61">
+        <v>0.02534506478151684</v>
+      </c>
+      <c r="F61">
+        <v>0.0817295345001736</v>
+      </c>
+      <c r="G61">
+        <v>0.01192474207168642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01753065937748421</v>
+        <v>0.01516785446914003</v>
       </c>
       <c r="C63">
-        <v>0.03567875879180641</v>
+        <v>0.03289682680430632</v>
       </c>
       <c r="D63">
-        <v>-0.004659724058340225</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.02172182263192853</v>
+      </c>
+      <c r="E63">
+        <v>0.0397038560983654</v>
+      </c>
+      <c r="F63">
+        <v>0.07560818655071387</v>
+      </c>
+      <c r="G63">
+        <v>0.02832375852928493</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05170594342692252</v>
+        <v>0.05568634019582618</v>
       </c>
       <c r="C64">
-        <v>0.03841736208879828</v>
+        <v>0.05439829551937599</v>
       </c>
       <c r="D64">
-        <v>-0.008409638543407448</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.00519925080766531</v>
+      </c>
+      <c r="E64">
+        <v>0.02163556790865522</v>
+      </c>
+      <c r="F64">
+        <v>0.08511794538507382</v>
+      </c>
+      <c r="G64">
+        <v>0.00962064327115532</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.09444365282494012</v>
+        <v>0.06934031233103123</v>
       </c>
       <c r="C65">
-        <v>0.02403485666137028</v>
+        <v>0.0321437056839202</v>
       </c>
       <c r="D65">
-        <v>0.04251870346883369</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.0857890868212082</v>
+      </c>
+      <c r="E65">
+        <v>0.03486116640731259</v>
+      </c>
+      <c r="F65">
+        <v>0.01735509833038842</v>
+      </c>
+      <c r="G65">
+        <v>0.002087886585458699</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.0676160779787631</v>
+        <v>0.0525009037340096</v>
       </c>
       <c r="C66">
-        <v>0.1008348458515122</v>
+        <v>0.09045731604305139</v>
       </c>
       <c r="D66">
-        <v>0.03720556560083035</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.07927744921541674</v>
+      </c>
+      <c r="E66">
+        <v>0.02657109240731276</v>
+      </c>
+      <c r="F66">
+        <v>0.09254823382712811</v>
+      </c>
+      <c r="G66">
+        <v>0.003267286916897222</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.05326005041573431</v>
+        <v>0.04659137288761946</v>
       </c>
       <c r="C67">
-        <v>0.03092865399183095</v>
+        <v>0.03053994903256122</v>
       </c>
       <c r="D67">
-        <v>-0.007274449777396423</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01169334468515419</v>
+      </c>
+      <c r="E67">
+        <v>0.01819497906317308</v>
+      </c>
+      <c r="F67">
+        <v>0.05403588041986319</v>
+      </c>
+      <c r="G67">
+        <v>0.01165840772460655</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1053599348126778</v>
+        <v>0.1490670092032013</v>
       </c>
       <c r="C68">
-        <v>-0.2934749392244835</v>
+        <v>-0.2525490595501978</v>
       </c>
       <c r="D68">
-        <v>-0.004180356528453794</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01803068353271316</v>
+      </c>
+      <c r="E68">
+        <v>0.04256629109042903</v>
+      </c>
+      <c r="F68">
+        <v>0.01571973580943853</v>
+      </c>
+      <c r="G68">
+        <v>0.01093631960208328</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09229865079666483</v>
+        <v>0.08724237013334614</v>
       </c>
       <c r="C69">
-        <v>0.06612234227647236</v>
+        <v>0.08534940941191807</v>
       </c>
       <c r="D69">
-        <v>-0.04093899897282412</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.01221061575175209</v>
+      </c>
+      <c r="E69">
+        <v>0.03388653650336002</v>
+      </c>
+      <c r="F69">
+        <v>0.09607069422153737</v>
+      </c>
+      <c r="G69">
+        <v>0.0283152267757266</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1027943780437813</v>
+        <v>0.1412706095860259</v>
       </c>
       <c r="C71">
-        <v>-0.2519432273185358</v>
+        <v>-0.2338361074032786</v>
       </c>
       <c r="D71">
-        <v>0.02606446592141512</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01487289433236673</v>
+      </c>
+      <c r="E71">
+        <v>0.06463192229254919</v>
+      </c>
+      <c r="F71">
+        <v>0.0560117456606568</v>
+      </c>
+      <c r="G71">
+        <v>0.03459772689712513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09063013394268953</v>
+        <v>0.09726562695864076</v>
       </c>
       <c r="C72">
-        <v>0.0462366377188258</v>
+        <v>0.05572894587961393</v>
       </c>
       <c r="D72">
-        <v>-0.008811548119968125</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.02029832634604776</v>
+      </c>
+      <c r="E72">
+        <v>0.01063806966289262</v>
+      </c>
+      <c r="F72">
+        <v>0.0799504332855116</v>
+      </c>
+      <c r="G72">
+        <v>0.02864306862746641</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.4216042139953438</v>
+        <v>0.3471773705189772</v>
       </c>
       <c r="C73">
-        <v>0.03438123859044977</v>
+        <v>0.07710731858327174</v>
       </c>
       <c r="D73">
-        <v>0.1921392202969457</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.4498132682511909</v>
+      </c>
+      <c r="E73">
+        <v>-0.4755489060766183</v>
+      </c>
+      <c r="F73">
+        <v>-0.2824080631171787</v>
+      </c>
+      <c r="G73">
+        <v>0.1003350445017608</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1175357029930414</v>
+        <v>0.1118937183568448</v>
       </c>
       <c r="C74">
-        <v>0.09767204182663079</v>
+        <v>0.09897824891175008</v>
       </c>
       <c r="D74">
-        <v>-0.01687497899410075</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03150038488623881</v>
+      </c>
+      <c r="E74">
+        <v>0.06318853345708719</v>
+      </c>
+      <c r="F74">
+        <v>0.05149889780774339</v>
+      </c>
+      <c r="G74">
+        <v>0.07258422437283206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2533107719941226</v>
+        <v>0.2579644478898001</v>
       </c>
       <c r="C75">
-        <v>0.1032238056641079</v>
+        <v>0.1317892132491963</v>
       </c>
       <c r="D75">
-        <v>-0.06851727802218739</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1304831572866845</v>
+      </c>
+      <c r="E75">
+        <v>0.07098624446980445</v>
+      </c>
+      <c r="F75">
+        <v>0.01805685015565621</v>
+      </c>
+      <c r="G75">
+        <v>0.07735684102630697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.117824313253645</v>
+        <v>0.1290333241980377</v>
       </c>
       <c r="C76">
-        <v>0.0883616338457814</v>
+        <v>0.1005861210508203</v>
       </c>
       <c r="D76">
-        <v>-0.03452384144813099</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.05913846044648582</v>
+      </c>
+      <c r="E76">
+        <v>0.06724068303565474</v>
+      </c>
+      <c r="F76">
+        <v>0.06998092211121991</v>
+      </c>
+      <c r="G76">
+        <v>0.06253093035092372</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.0801083299036278</v>
+        <v>0.06239407247989508</v>
       </c>
       <c r="C77">
-        <v>0.05233961110119981</v>
+        <v>0.07018718548226845</v>
       </c>
       <c r="D77">
-        <v>0.05394154743070723</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.06387364055103946</v>
+      </c>
+      <c r="E77">
+        <v>0.07113131965614949</v>
+      </c>
+      <c r="F77">
+        <v>0.1222250768322985</v>
+      </c>
+      <c r="G77">
+        <v>-0.1366916068337159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.05123356774165454</v>
+        <v>0.04365083743126975</v>
       </c>
       <c r="C78">
-        <v>0.03991805924437622</v>
+        <v>0.05600676347658188</v>
       </c>
       <c r="D78">
-        <v>0.01936443378399657</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07174185974429664</v>
+      </c>
+      <c r="E78">
+        <v>0.02887160430372971</v>
+      </c>
+      <c r="F78">
+        <v>0.102402091612063</v>
+      </c>
+      <c r="G78">
+        <v>0.004260004979814244</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>0.02550467413150877</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>0.03764235383622384</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.05987180857849798</v>
+      </c>
+      <c r="E79">
+        <v>0.05067844585690049</v>
+      </c>
+      <c r="F79">
+        <v>0.042770476401546</v>
+      </c>
+      <c r="G79">
+        <v>0.06603321468770607</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04711754404780581</v>
+        <v>0.03488266481371666</v>
       </c>
       <c r="C80">
-        <v>0.04880385993051971</v>
+        <v>0.05512655055828665</v>
       </c>
       <c r="D80">
-        <v>0.03289525951880534</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.04637175833303248</v>
+      </c>
+      <c r="E80">
+        <v>0.01280845676353328</v>
+      </c>
+      <c r="F80">
+        <v>0.03555129289070663</v>
+      </c>
+      <c r="G80">
+        <v>-0.04692540906517152</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.142269643746912</v>
+        <v>0.1411884326943065</v>
       </c>
       <c r="C81">
-        <v>0.07045339322617172</v>
+        <v>0.09523993930197455</v>
       </c>
       <c r="D81">
-        <v>-0.03998703586381055</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09789798227441782</v>
+      </c>
+      <c r="E81">
+        <v>0.08150104230072071</v>
+      </c>
+      <c r="F81">
+        <v>0.01580040635681478</v>
+      </c>
+      <c r="G81">
+        <v>0.05592372463609022</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.1579478070057786</v>
+        <v>0.2016878231761708</v>
       </c>
       <c r="C82">
-        <v>0.05359397822074517</v>
+        <v>0.1339747834107296</v>
       </c>
       <c r="D82">
-        <v>-0.1386127204725535</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2319254841886024</v>
+      </c>
+      <c r="E82">
+        <v>0.01101236546889546</v>
+      </c>
+      <c r="F82">
+        <v>0.08091153146830862</v>
+      </c>
+      <c r="G82">
+        <v>0.03991043730769842</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.03687167105223386</v>
+        <v>0.02795526723783634</v>
       </c>
       <c r="C83">
-        <v>0.02101270215835488</v>
+        <v>0.04087695629276446</v>
       </c>
       <c r="D83">
-        <v>0.02689184422119838</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.03319775700330611</v>
+      </c>
+      <c r="E83">
+        <v>0.01118244308740076</v>
+      </c>
+      <c r="F83">
+        <v>0.04756058390854614</v>
+      </c>
+      <c r="G83">
+        <v>-0.02071582744719585</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.2226986455432404</v>
+        <v>0.2051748050563098</v>
       </c>
       <c r="C85">
-        <v>0.1006520144984781</v>
+        <v>0.1193873081138122</v>
       </c>
       <c r="D85">
-        <v>-0.1007313446618195</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1014387986364031</v>
+      </c>
+      <c r="E85">
+        <v>0.001497890739738318</v>
+      </c>
+      <c r="F85">
+        <v>-0.01801526384930837</v>
+      </c>
+      <c r="G85">
+        <v>0.1309540179529369</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01324690350528811</v>
+        <v>0.01132679577691901</v>
       </c>
       <c r="C86">
-        <v>0.03565765277252796</v>
+        <v>0.03139003613708789</v>
       </c>
       <c r="D86">
-        <v>0.04090593149631842</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.07004515600509009</v>
+      </c>
+      <c r="E86">
+        <v>0.04956785031471005</v>
+      </c>
+      <c r="F86">
+        <v>0.136432063454777</v>
+      </c>
+      <c r="G86">
+        <v>-0.0100001896953556</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.02434458472746628</v>
+        <v>0.02144467146201501</v>
       </c>
       <c r="C87">
-        <v>0.01878070631397891</v>
+        <v>0.02219269796816984</v>
       </c>
       <c r="D87">
-        <v>0.09516660948226983</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09167340575741613</v>
+      </c>
+      <c r="E87">
+        <v>0.09467363917929138</v>
+      </c>
+      <c r="F87">
+        <v>0.09060893668899055</v>
+      </c>
+      <c r="G87">
+        <v>-0.03650708953102156</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.1070931668136207</v>
+        <v>0.09190426676484864</v>
       </c>
       <c r="C88">
-        <v>0.06913973101941784</v>
+        <v>0.06238457806748493</v>
       </c>
       <c r="D88">
-        <v>-0.01808853002861424</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.009686163179326723</v>
+      </c>
+      <c r="E88">
+        <v>0.03835351542510232</v>
+      </c>
+      <c r="F88">
+        <v>0.07133135038768931</v>
+      </c>
+      <c r="G88">
+        <v>-0.03018262492783539</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.1638823924756135</v>
+        <v>0.2208515520996665</v>
       </c>
       <c r="C89">
-        <v>-0.3850137108765774</v>
+        <v>-0.3812749398602034</v>
       </c>
       <c r="D89">
-        <v>-0.02549555442548016</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01292036699239636</v>
+      </c>
+      <c r="E89">
+        <v>0.03942367510793522</v>
+      </c>
+      <c r="F89">
+        <v>0.09524457806271854</v>
+      </c>
+      <c r="G89">
+        <v>-0.06393824842824609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1598990718825863</v>
+        <v>0.1992454856898192</v>
       </c>
       <c r="C90">
-        <v>-0.3541489807645664</v>
+        <v>-0.3161379936995563</v>
       </c>
       <c r="D90">
-        <v>-0.01483839291635082</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01228747986453223</v>
+      </c>
+      <c r="E90">
+        <v>0.06844860292370193</v>
+      </c>
+      <c r="F90">
+        <v>0.04435210421120933</v>
+      </c>
+      <c r="G90">
+        <v>-0.01171009087751206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1934177568791927</v>
+        <v>0.1870293531457465</v>
       </c>
       <c r="C91">
-        <v>0.1126935558611896</v>
+        <v>0.1383402028642887</v>
       </c>
       <c r="D91">
-        <v>-0.06261318033854346</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1062373604262727</v>
+      </c>
+      <c r="E91">
+        <v>0.06391708113502542</v>
+      </c>
+      <c r="F91">
+        <v>0.03480720249257314</v>
+      </c>
+      <c r="G91">
+        <v>0.05931960958646201</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1565382472549037</v>
+        <v>0.1810264279885232</v>
       </c>
       <c r="C92">
-        <v>-0.2931679363086293</v>
+        <v>-0.284031073426126</v>
       </c>
       <c r="D92">
-        <v>-0.01200964234174945</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.002524802374995184</v>
+      </c>
+      <c r="E92">
+        <v>0.06686571841795685</v>
+      </c>
+      <c r="F92">
+        <v>0.08479091379532853</v>
+      </c>
+      <c r="G92">
+        <v>-0.007438984210843901</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.1819664462042402</v>
+        <v>0.2233129027432495</v>
       </c>
       <c r="C93">
-        <v>-0.3481055475915963</v>
+        <v>-0.320216934220021</v>
       </c>
       <c r="D93">
-        <v>-0.007819385723179136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.0007343156191277568</v>
+      </c>
+      <c r="E93">
+        <v>0.05257629112099507</v>
+      </c>
+      <c r="F93">
+        <v>0.04143751988166629</v>
+      </c>
+      <c r="G93">
+        <v>0.02719520305215755</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3389413398571579</v>
+        <v>0.3431779977394172</v>
       </c>
       <c r="C94">
-        <v>0.1295621483599648</v>
+        <v>0.1824414494541615</v>
       </c>
       <c r="D94">
-        <v>-0.2930327732798694</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4793206196076339</v>
+      </c>
+      <c r="E94">
+        <v>0.1217931056203539</v>
+      </c>
+      <c r="F94">
+        <v>-0.4446872789819311</v>
+      </c>
+      <c r="G94">
+        <v>-0.3298634019095518</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.1090746549803647</v>
+        <v>0.08579970233702815</v>
       </c>
       <c r="C95">
-        <v>0.06993262117551263</v>
+        <v>0.0666508848862193</v>
       </c>
       <c r="D95">
-        <v>0.06036315252731531</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1613236081764712</v>
+      </c>
+      <c r="E95">
+        <v>-0.1213180071581016</v>
+      </c>
+      <c r="F95">
+        <v>0.202602831195508</v>
+      </c>
+      <c r="G95">
+        <v>-0.8667792030473745</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1971163449671648</v>
+        <v>0.1875964718015555</v>
       </c>
       <c r="C98">
-        <v>0.01178605472161123</v>
+        <v>0.04253543168791952</v>
       </c>
       <c r="D98">
-        <v>0.08041541096047872</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.182667085471547</v>
+      </c>
+      <c r="E98">
+        <v>-0.1520795480221077</v>
+      </c>
+      <c r="F98">
+        <v>-0.04466350162829696</v>
+      </c>
+      <c r="G98">
+        <v>0.1009129372783753</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01100737558217151</v>
+        <v>0.005984334542065637</v>
       </c>
       <c r="C101">
-        <v>0.02813341586838949</v>
+        <v>0.02770349668078634</v>
       </c>
       <c r="D101">
-        <v>-0.01779101142218652</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0191516826038308</v>
+      </c>
+      <c r="E101">
+        <v>0.03189836351008456</v>
+      </c>
+      <c r="F101">
+        <v>0.0892201201744626</v>
+      </c>
+      <c r="G101">
+        <v>0.004095489192360568</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1248771519520005</v>
+        <v>0.1249487947404644</v>
       </c>
       <c r="C102">
-        <v>0.07044853002570489</v>
+        <v>0.09919817119595385</v>
       </c>
       <c r="D102">
-        <v>-0.03404214671072796</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.05009595708781842</v>
+      </c>
+      <c r="E102">
+        <v>-0.008607437763157666</v>
+      </c>
+      <c r="F102">
+        <v>0.0398728675233212</v>
+      </c>
+      <c r="G102">
+        <v>0.0230294857134089</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
